--- a/Cadastro Funcionarios.xlsx
+++ b/Cadastro Funcionarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stefani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899CFB24-AD67-41F2-BC2A-088350C08DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52EC7D8-ADAB-4360-8179-5ED1DBD86E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Allan Centurione</t>
   </si>
@@ -184,6 +184,36 @@
   </si>
   <si>
     <t>Jaguariúna - SP</t>
+  </si>
+  <si>
+    <t>Fotos</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/blob/main/2des/projetos/assets/avatares/cli1.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/blob/main/2des/projetos/assets/avatares/cli3.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/blob/main/2des/projetos/assets/avatares/cli4.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/blob/main/2des/projetos/assets/avatares/cli2.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/blob/main/2des/projetos/assets/avatares/cli5.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/blob/main/2des/projetos/assets/avatares/cli6.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/blob/main/2des/projetos/assets/avatares/cli8.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/raw/main/2des/projetos/assets/avatares/cli2.png</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/blob/main/2des/projetos/assets/avatares/cli7.png?raw=true</t>
   </si>
 </sst>
 </file>
@@ -193,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +235,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -265,10 +303,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,8 +340,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,9 +644,10 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="73.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="94.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -628,8 +678,11 @@
       <c r="J1" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -660,8 +713,11 @@
       <c r="J2" s="6">
         <v>562.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -692,8 +748,11 @@
       <c r="J3" s="7">
         <v>306.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -724,8 +783,11 @@
       <c r="J4" s="6">
         <v>630</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -756,8 +818,11 @@
       <c r="J5" s="7">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -788,8 +853,11 @@
       <c r="J6" s="6">
         <v>875</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -820,8 +888,11 @@
       <c r="J7" s="7">
         <v>912.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -852,8 +923,11 @@
       <c r="J8" s="6">
         <v>337.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -884,8 +958,11 @@
       <c r="J9" s="7">
         <v>506.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -916,8 +993,11 @@
       <c r="J10" s="6">
         <v>412.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -948,8 +1028,11 @@
       <c r="J11" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -980,8 +1063,11 @@
       <c r="J12" s="6">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1012,8 +1098,11 @@
       <c r="J13" s="7">
         <v>225</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1044,8 +1133,11 @@
       <c r="J14" s="6">
         <v>641.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1076,9 +1168,28 @@
       <c r="J15" s="10">
         <v>350</v>
       </c>
+      <c r="K15" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K6" r:id="rId1" xr:uid="{F8668113-6411-4003-9476-A79BF485B2D8}"/>
+    <hyperlink ref="K7" r:id="rId2" xr:uid="{2DBBD021-DF98-48E4-B978-2787A6B00348}"/>
+    <hyperlink ref="K9" r:id="rId3" xr:uid="{4131E367-6CBA-41E6-B38A-61F80A3C65F5}"/>
+    <hyperlink ref="K13" r:id="rId4" xr:uid="{19B5F205-FE35-4830-9267-0336EB3588B2}"/>
+    <hyperlink ref="K15" r:id="rId5" xr:uid="{3D8626CE-017E-4F0E-8BE9-73AFD5C7DC50}"/>
+    <hyperlink ref="K2" r:id="rId6" xr:uid="{E63F15E0-CED3-4B7E-939E-090CBAF686F5}"/>
+    <hyperlink ref="K3" r:id="rId7" xr:uid="{CF2BB581-840A-4A8A-8CF6-4565A9FA1790}"/>
+    <hyperlink ref="K4" r:id="rId8" xr:uid="{36A6542F-2998-4FD5-8950-EB1927D6F874}"/>
+    <hyperlink ref="K5" r:id="rId9" xr:uid="{A8DE467C-50E3-413B-A17C-9CDF2C7EFFD3}"/>
+    <hyperlink ref="K8" r:id="rId10" xr:uid="{6D737589-57C9-4AD9-AB31-39ABD5B794C2}"/>
+    <hyperlink ref="K14" r:id="rId11" xr:uid="{6D488629-2159-4920-81F6-56576B92A130}"/>
+    <hyperlink ref="K12" r:id="rId12" xr:uid="{FB3B6072-82A2-4664-B1AD-1660255ACE91}"/>
+    <hyperlink ref="K10" r:id="rId13" xr:uid="{419D15D8-4E25-474D-B36D-DEB7169F36C3}"/>
+    <hyperlink ref="K11" r:id="rId14" xr:uid="{F07F2880-6999-4F3F-95DC-0FCCBE6906C9}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>